--- a/StructureDefinition-bc-subscription-notification-bundle.xlsx
+++ b/StructureDefinition-bc-subscription-notification-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-subscription-notification-bundle.xlsx
+++ b/StructureDefinition-bc-subscription-notification-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-subscription-notification-bundle.xlsx
+++ b/StructureDefinition-bc-subscription-notification-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-subscription-notification-bundle.xlsx
+++ b/StructureDefinition-bc-subscription-notification-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-subscription-notification-bundle.xlsx
+++ b/StructureDefinition-bc-subscription-notification-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-subscription-notification-bundle.xlsx
+++ b/StructureDefinition-bc-subscription-notification-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-subscription-notification-bundle.xlsx
+++ b/StructureDefinition-bc-subscription-notification-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-subscription-notification-bundle.xlsx
+++ b/StructureDefinition-bc-subscription-notification-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
